--- a/downloaded_files/EECS316_Lecture-35859.xlsx
+++ b/downloaded_files/EECS316_Lecture-35859.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Fatma Gamal Zeinelabdeen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم محمد سيد احمد على عبد ربه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim mohamed sayed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1210375</x:t>
@@ -425,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1264,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.664603044</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.664603044</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45906.6649520833</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6649520833</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4145865741</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4145865741</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45906.4149623032</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4149623032</x:v>
+        <x:v>45906.6644841782</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6644841782</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45906.6647167014</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1735,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6647167014</x:v>
+        <x:v>45914.7131671296</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1761,38 +1752,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45914.7131671296</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS316_Lecture-35859.xlsx
+++ b/downloaded_files/EECS316_Lecture-35859.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Anas Alaa Mohamed  Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ايه محمد عبد التواب السيد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aya Mohamed Abdeltawab Alsayed</x:t>
   </x:si>
   <x:si>
     <x:t>1210003</x:t>
@@ -416,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -903,7 +912,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4144715278</x:v>
+        <x:v>45927.8313489583</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -935,7 +944,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4141525463</x:v>
+        <x:v>45906.4144715278</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -967,7 +976,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4144362268</x:v>
+        <x:v>45906.4141525463</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -999,7 +1008,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.7877232639</x:v>
+        <x:v>45906.4144362268</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1031,7 +1040,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45912.7877232639</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1063,7 +1072,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4167106134</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1095,7 +1104,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6646272801</x:v>
+        <x:v>45906.4167106134</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1127,7 +1136,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4146170486</x:v>
+        <x:v>45906.6646272801</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1159,7 +1168,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.4146170486</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1200,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4319358796</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1232,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.7934142361</x:v>
+        <x:v>45906.4319358796</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1264,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.664603044</x:v>
+        <x:v>45912.7934142361</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45906.664603044</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6649520833</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.6649520833</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4145865741</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4145865741</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4149623032</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6644841782</x:v>
+        <x:v>45906.4149623032</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45906.6644841782</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6647167014</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1735,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.7131671296</x:v>
+        <x:v>45906.6647167014</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1752,6 +1761,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45914.7131671296</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS316_Lecture-35859.xlsx
+++ b/downloaded_files/EECS316_Lecture-35859.xlsx
@@ -96,15 +96,6 @@
     <x:t>Khaled Ali Fathi Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1220123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رغد وليد محمد نبيه فرج حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Raghad Waleed Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210386</x:t>
   </x:si>
   <x:si>
@@ -130,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>Aisha Tawfik Mahmoud Tawfik Esmat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمود زكريا ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman mahmoud zakaria</x:t>
   </x:si>
   <x:si>
     <x:t>1210016</x:t>
@@ -1040,7 +1040,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.7877232639</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1072,7 +1072,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45906.4167106134</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1104,7 +1104,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4167106134</x:v>
+        <x:v>45906.6646272801</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1136,7 +1136,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6646272801</x:v>
+        <x:v>45928.5373302893</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>

--- a/downloaded_files/EECS316_Lecture-35859.xlsx
+++ b/downloaded_files/EECS316_Lecture-35859.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Ashraf Ali Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد محمد احمد عسكر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ahmed Mohamed Ahmed Asker</x:t>
   </x:si>
   <x:si>
     <x:t>4220131</x:t>
@@ -425,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1232,7 +1241,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4319358796</x:v>
+        <x:v>45928.8195326736</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1264,7 +1273,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.7934142361</x:v>
+        <x:v>45906.4319358796</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1305,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.664603044</x:v>
+        <x:v>45912.7934142361</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1337,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4185215625</x:v>
+        <x:v>45906.664603044</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1369,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6649520833</x:v>
+        <x:v>45906.4185215625</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1401,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.6649520833</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1465,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4145865741</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4145865741</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4149623032</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6644841782</x:v>
+        <x:v>45906.4149623032</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45906.6644841782</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6647167014</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1776,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.7131671296</x:v>
+        <x:v>45906.6647167014</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1793,6 +1802,38 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45914.7131671296</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS316_Lecture-35859.xlsx
+++ b/downloaded_files/EECS316_Lecture-35859.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Mariam mahrous mohamed abdelaal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفي أسامة عبدالحميد توفيق عبد الحميد نصار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Usama Abdelhameed Tawfeek Abdelhameed Nassar</x:t>
   </x:si>
   <x:si>
     <x:t>1210032</x:t>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1657,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45912.7826103356</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4149623032</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6644841782</x:v>
+        <x:v>45906.4149623032</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45906.6644841782</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6647167014</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.7131671296</x:v>
+        <x:v>45906.6647167014</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1834,6 +1843,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45914.7131671296</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
